--- a/CH-045 Text Split.xlsx
+++ b/CH-045 Text Split.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396D933D-780C-47D5-AE0E-D37949DA7D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4629504-83E2-45B4-85EB-5AF8E260520D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="57">
   <si>
     <t>Result</t>
   </si>
@@ -539,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -648,6 +648,15 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1684,13 +1693,13 @@
         <v>17</v>
       </c>
       <c r="C1" s="15"/>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
@@ -2070,10 +2079,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF8DA3B-3B7D-4B49-8436-B503742A1826}">
-  <dimension ref="B1:K37"/>
+  <dimension ref="B1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2082,7 +2091,9 @@
     <col min="2" max="2" width="13.5" style="17" customWidth="1"/>
     <col min="3" max="3" width="58" style="1" customWidth="1"/>
     <col min="4" max="8" width="6.09765625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="7.8984375" customWidth="1"/>
+    <col min="12" max="14" width="6.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2090,13 +2101,13 @@
         <v>17</v>
       </c>
       <c r="C1" s="15"/>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
@@ -2418,7 +2429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
         <v>15</v>
       </c>
@@ -2439,22 +2450,37 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C18" s="16"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C19" s="16"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C20" s="16"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C21" s="16"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C22" s="16"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J22" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C23" s="16"/>
       <c r="D23" s="1" t="str" cm="1">
         <f t="array" ref="D23:H23">MID(B3,{1,3,4,6,7},{2,1,2,1,2})</f>
@@ -2472,8 +2498,40 @@
       <c r="H23" s="1" t="str">
         <v/>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J23" s="32" t="str" cm="1">
+        <f t="array" ref="J23:N23">_xlfn.LET(_xlpm.x,MID(B3,{1,3,4,6,7},{2,1,2,1,2}),_xlfn.HSTACK(_xlfn.CHOOSECOLS(_xlpm.x,1),_xlfn.CHOOSECOLS(_xlpm.x,2)+0,_xlfn.CHOOSECOLS(_xlpm.x,3),IFERROR(_xlfn.CHOOSECOLS(_xlpm.x,4)+0,""),_xlfn.CHOOSECOLS(_xlpm.x,5)))</f>
+        <v>NG</v>
+      </c>
+      <c r="K23" s="33">
+        <v>6</v>
+      </c>
+      <c r="L23" s="33" t="str">
+        <v>GM</v>
+      </c>
+      <c r="M23" s="33">
+        <v>5</v>
+      </c>
+      <c r="N23" s="34" t="str">
+        <v/>
+      </c>
+      <c r="O23" t="b" cm="1">
+        <f t="array" ref="O23:S37">J23:N37=D3:H17</f>
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>1</v>
+      </c>
+      <c r="R23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C24" s="16"/>
       <c r="D24" s="1" t="str" cm="1">
         <f t="array" ref="D24:H24">MID(B4,{1,3,4,6,7},{2,1,2,1,2})</f>
@@ -2491,8 +2549,39 @@
       <c r="H24" s="1" t="str">
         <v>PL</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J24" s="32" t="str" cm="1">
+        <f t="array" ref="J24:N24">_xlfn.LET(_xlpm.x,MID(B4,{1,3,4,6,7},{2,1,2,1,2}),_xlfn.HSTACK(_xlfn.CHOOSECOLS(_xlpm.x,1),_xlfn.CHOOSECOLS(_xlpm.x,2)+0,_xlfn.CHOOSECOLS(_xlpm.x,3),IFERROR(_xlfn.CHOOSECOLS(_xlpm.x,4)+0,""),_xlfn.CHOOSECOLS(_xlpm.x,5)))</f>
+        <v>UD</v>
+      </c>
+      <c r="K24" s="33">
+        <v>1</v>
+      </c>
+      <c r="L24" s="33" t="str">
+        <v>OP</v>
+      </c>
+      <c r="M24" s="33">
+        <v>3</v>
+      </c>
+      <c r="N24" s="34" t="str">
+        <v>PL</v>
+      </c>
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24" t="b">
+        <v>1</v>
+      </c>
+      <c r="S24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="str" cm="1">
         <f t="array" ref="D25:H25">MID(B5,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>RE</v>
@@ -2509,8 +2598,39 @@
       <c r="H25" s="1" t="str">
         <v>R</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J25" s="32" t="str" cm="1">
+        <f t="array" ref="J25:N25">_xlfn.LET(_xlpm.x,MID(B5,{1,3,4,6,7},{2,1,2,1,2}),_xlfn.HSTACK(_xlfn.CHOOSECOLS(_xlpm.x,1),_xlfn.CHOOSECOLS(_xlpm.x,2)+0,_xlfn.CHOOSECOLS(_xlpm.x,3),IFERROR(_xlfn.CHOOSECOLS(_xlpm.x,4)+0,""),_xlfn.CHOOSECOLS(_xlpm.x,5)))</f>
+        <v>RE</v>
+      </c>
+      <c r="K25" s="33">
+        <v>4</v>
+      </c>
+      <c r="L25" s="33" t="str">
+        <v>EA</v>
+      </c>
+      <c r="M25" s="33">
+        <v>3</v>
+      </c>
+      <c r="N25" s="34" t="str">
+        <v>R</v>
+      </c>
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>1</v>
+      </c>
+      <c r="R25" t="b">
+        <v>1</v>
+      </c>
+      <c r="S25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="str" cm="1">
         <f t="array" ref="D26:H26">MID(B6,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>EL</v>
@@ -2527,8 +2647,39 @@
       <c r="H26" s="1" t="str">
         <v>JK</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J26" s="32" t="str" cm="1">
+        <f t="array" ref="J26:N26">_xlfn.LET(_xlpm.x,MID(B6,{1,3,4,6,7},{2,1,2,1,2}),_xlfn.HSTACK(_xlfn.CHOOSECOLS(_xlpm.x,1),_xlfn.CHOOSECOLS(_xlpm.x,2)+0,_xlfn.CHOOSECOLS(_xlpm.x,3),IFERROR(_xlfn.CHOOSECOLS(_xlpm.x,4)+0,""),_xlfn.CHOOSECOLS(_xlpm.x,5)))</f>
+        <v>EL</v>
+      </c>
+      <c r="K26" s="33">
+        <v>8</v>
+      </c>
+      <c r="L26" s="33" t="str">
+        <v>DC</v>
+      </c>
+      <c r="M26" s="33">
+        <v>6</v>
+      </c>
+      <c r="N26" s="34" t="str">
+        <v>JK</v>
+      </c>
+      <c r="O26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>1</v>
+      </c>
+      <c r="R26" t="b">
+        <v>1</v>
+      </c>
+      <c r="S26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="str" cm="1">
         <f t="array" ref="D27:H27">MID(B7,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>TO</v>
@@ -2545,8 +2696,39 @@
       <c r="H27" s="1" t="str">
         <v>RU</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J27" s="32" t="str" cm="1">
+        <f t="array" ref="J27:N27">_xlfn.LET(_xlpm.x,MID(B7,{1,3,4,6,7},{2,1,2,1,2}),_xlfn.HSTACK(_xlfn.CHOOSECOLS(_xlpm.x,1),_xlfn.CHOOSECOLS(_xlpm.x,2)+0,_xlfn.CHOOSECOLS(_xlpm.x,3),IFERROR(_xlfn.CHOOSECOLS(_xlpm.x,4)+0,""),_xlfn.CHOOSECOLS(_xlpm.x,5)))</f>
+        <v>TO</v>
+      </c>
+      <c r="K27" s="33">
+        <v>1</v>
+      </c>
+      <c r="L27" s="33" t="str">
+        <v>TS</v>
+      </c>
+      <c r="M27" s="33">
+        <v>9</v>
+      </c>
+      <c r="N27" s="34" t="str">
+        <v>RU</v>
+      </c>
+      <c r="O27" t="b">
+        <v>1</v>
+      </c>
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="b">
+        <v>1</v>
+      </c>
+      <c r="R27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="str" cm="1">
         <f t="array" ref="D28:H28">MID(B8,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>PN</v>
@@ -2563,8 +2745,39 @@
       <c r="H28" s="1" t="str">
         <v/>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J28" s="32" t="str" cm="1">
+        <f t="array" ref="J28:N28">_xlfn.LET(_xlpm.x,MID(B8,{1,3,4,6,7},{2,1,2,1,2}),_xlfn.HSTACK(_xlfn.CHOOSECOLS(_xlpm.x,1),_xlfn.CHOOSECOLS(_xlpm.x,2)+0,_xlfn.CHOOSECOLS(_xlpm.x,3),IFERROR(_xlfn.CHOOSECOLS(_xlpm.x,4)+0,""),_xlfn.CHOOSECOLS(_xlpm.x,5)))</f>
+        <v>PN</v>
+      </c>
+      <c r="K28" s="33">
+        <v>6</v>
+      </c>
+      <c r="L28" s="33" t="str">
+        <v>PU</v>
+      </c>
+      <c r="M28" s="33" t="str">
+        <v/>
+      </c>
+      <c r="N28" s="34" t="str">
+        <v/>
+      </c>
+      <c r="O28" t="b">
+        <v>1</v>
+      </c>
+      <c r="P28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R28" t="b">
+        <v>1</v>
+      </c>
+      <c r="S28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="str" cm="1">
         <f t="array" ref="D29:H29">MID(B9,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>UD</v>
@@ -2581,8 +2794,39 @@
       <c r="H29" s="1" t="str">
         <v/>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J29" s="32" t="str" cm="1">
+        <f t="array" ref="J29:N29">_xlfn.LET(_xlpm.x,MID(B9,{1,3,4,6,7},{2,1,2,1,2}),_xlfn.HSTACK(_xlfn.CHOOSECOLS(_xlpm.x,1),_xlfn.CHOOSECOLS(_xlpm.x,2)+0,_xlfn.CHOOSECOLS(_xlpm.x,3),IFERROR(_xlfn.CHOOSECOLS(_xlpm.x,4)+0,""),_xlfn.CHOOSECOLS(_xlpm.x,5)))</f>
+        <v>UD</v>
+      </c>
+      <c r="K29" s="33">
+        <v>8</v>
+      </c>
+      <c r="L29" s="33" t="str">
+        <v>PD</v>
+      </c>
+      <c r="M29" s="33">
+        <v>5</v>
+      </c>
+      <c r="N29" s="34" t="str">
+        <v/>
+      </c>
+      <c r="O29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="b">
+        <v>1</v>
+      </c>
+      <c r="R29" t="b">
+        <v>1</v>
+      </c>
+      <c r="S29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="str" cm="1">
         <f t="array" ref="D30:H30">MID(B10,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>RD</v>
@@ -2599,8 +2843,39 @@
       <c r="H30" s="1" t="str">
         <v>J</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J30" s="32" t="str" cm="1">
+        <f t="array" ref="J30:N30">_xlfn.LET(_xlpm.x,MID(B10,{1,3,4,6,7},{2,1,2,1,2}),_xlfn.HSTACK(_xlfn.CHOOSECOLS(_xlpm.x,1),_xlfn.CHOOSECOLS(_xlpm.x,2)+0,_xlfn.CHOOSECOLS(_xlpm.x,3),IFERROR(_xlfn.CHOOSECOLS(_xlpm.x,4)+0,""),_xlfn.CHOOSECOLS(_xlpm.x,5)))</f>
+        <v>RD</v>
+      </c>
+      <c r="K30" s="33">
+        <v>5</v>
+      </c>
+      <c r="L30" s="33" t="str">
+        <v>FS</v>
+      </c>
+      <c r="M30" s="33">
+        <v>7</v>
+      </c>
+      <c r="N30" s="34" t="str">
+        <v>J</v>
+      </c>
+      <c r="O30" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="b">
+        <v>1</v>
+      </c>
+      <c r="R30" t="b">
+        <v>1</v>
+      </c>
+      <c r="S30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="str" cm="1">
         <f t="array" ref="D31:H31">MID(B11,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>TQ</v>
@@ -2617,8 +2892,39 @@
       <c r="H31" s="1" t="str">
         <v/>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J31" s="35" t="str" cm="1">
+        <f t="array" ref="J31:N31">_xlfn.LET(_xlpm.x,MID(B11,{1,3,4,6,7},{2,1,2,1,2}),_xlfn.HSTACK(_xlfn.CHOOSECOLS(_xlpm.x,1),_xlfn.CHOOSECOLS(_xlpm.x,2)+0,_xlfn.CHOOSECOLS(_xlpm.x,3),IFERROR(_xlfn.CHOOSECOLS(_xlpm.x,4)+0,""),_xlfn.CHOOSECOLS(_xlpm.x,5)))</f>
+        <v>TQ</v>
+      </c>
+      <c r="K31" s="36">
+        <v>4</v>
+      </c>
+      <c r="L31" s="36" t="str">
+        <v>BN</v>
+      </c>
+      <c r="M31" s="36">
+        <v>8</v>
+      </c>
+      <c r="N31" s="37" t="str">
+        <v/>
+      </c>
+      <c r="O31" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="b">
+        <v>1</v>
+      </c>
+      <c r="R31" t="b">
+        <v>1</v>
+      </c>
+      <c r="S31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="str" cm="1">
         <f t="array" ref="D32:H32">MID(B12,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>JF</v>
@@ -2635,8 +2941,39 @@
       <c r="H32" s="1" t="str">
         <v/>
       </c>
-    </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J32" s="32" t="str" cm="1">
+        <f t="array" ref="J32:N32">_xlfn.LET(_xlpm.x,MID(B12,{1,3,4,6,7},{2,1,2,1,2}),_xlfn.HSTACK(_xlfn.CHOOSECOLS(_xlpm.x,1),_xlfn.CHOOSECOLS(_xlpm.x,2)+0,_xlfn.CHOOSECOLS(_xlpm.x,3),IFERROR(_xlfn.CHOOSECOLS(_xlpm.x,4)+0,""),_xlfn.CHOOSECOLS(_xlpm.x,5)))</f>
+        <v>JF</v>
+      </c>
+      <c r="K32" s="33">
+        <v>7</v>
+      </c>
+      <c r="L32" s="33" t="str">
+        <v/>
+      </c>
+      <c r="M32" s="33" t="str">
+        <v/>
+      </c>
+      <c r="N32" s="34" t="str">
+        <v/>
+      </c>
+      <c r="O32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="b">
+        <v>1</v>
+      </c>
+      <c r="R32" t="b">
+        <v>1</v>
+      </c>
+      <c r="S32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="str" cm="1">
         <f t="array" ref="D33:H33">MID(B13,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>LP</v>
@@ -2653,8 +2990,39 @@
       <c r="H33" s="1" t="str">
         <v/>
       </c>
-    </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J33" s="32" t="str" cm="1">
+        <f t="array" ref="J33:N33">_xlfn.LET(_xlpm.x,MID(B13,{1,3,4,6,7},{2,1,2,1,2}),_xlfn.HSTACK(_xlfn.CHOOSECOLS(_xlpm.x,1),_xlfn.CHOOSECOLS(_xlpm.x,2)+0,_xlfn.CHOOSECOLS(_xlpm.x,3),IFERROR(_xlfn.CHOOSECOLS(_xlpm.x,4)+0,""),_xlfn.CHOOSECOLS(_xlpm.x,5)))</f>
+        <v>LP</v>
+      </c>
+      <c r="K33" s="33">
+        <v>7</v>
+      </c>
+      <c r="L33" s="33" t="str">
+        <v>U</v>
+      </c>
+      <c r="M33" s="33" t="str">
+        <v/>
+      </c>
+      <c r="N33" s="34" t="str">
+        <v/>
+      </c>
+      <c r="O33" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="b">
+        <v>1</v>
+      </c>
+      <c r="R33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="str" cm="1">
         <f t="array" ref="D34:H34">MID(B14,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>QB</v>
@@ -2671,8 +3039,39 @@
       <c r="H34" s="1" t="str">
         <v>SA</v>
       </c>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J34" s="32" t="str" cm="1">
+        <f t="array" ref="J34:N34">_xlfn.LET(_xlpm.x,MID(B14,{1,3,4,6,7},{2,1,2,1,2}),_xlfn.HSTACK(_xlfn.CHOOSECOLS(_xlpm.x,1),_xlfn.CHOOSECOLS(_xlpm.x,2)+0,_xlfn.CHOOSECOLS(_xlpm.x,3),IFERROR(_xlfn.CHOOSECOLS(_xlpm.x,4)+0,""),_xlfn.CHOOSECOLS(_xlpm.x,5)))</f>
+        <v>QB</v>
+      </c>
+      <c r="K34" s="33">
+        <v>6</v>
+      </c>
+      <c r="L34" s="33" t="str">
+        <v>JT</v>
+      </c>
+      <c r="M34" s="33">
+        <v>5</v>
+      </c>
+      <c r="N34" s="34" t="str">
+        <v>SA</v>
+      </c>
+      <c r="O34" t="b">
+        <v>1</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="b">
+        <v>1</v>
+      </c>
+      <c r="R34" t="b">
+        <v>1</v>
+      </c>
+      <c r="S34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D35" s="1" t="str" cm="1">
         <f t="array" ref="D35:H35">MID(B15,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>IH</v>
@@ -2689,8 +3088,39 @@
       <c r="H35" s="1" t="str">
         <v/>
       </c>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J35" s="32" t="str" cm="1">
+        <f t="array" ref="J35:N35">_xlfn.LET(_xlpm.x,MID(B15,{1,3,4,6,7},{2,1,2,1,2}),_xlfn.HSTACK(_xlfn.CHOOSECOLS(_xlpm.x,1),_xlfn.CHOOSECOLS(_xlpm.x,2)+0,_xlfn.CHOOSECOLS(_xlpm.x,3),IFERROR(_xlfn.CHOOSECOLS(_xlpm.x,4)+0,""),_xlfn.CHOOSECOLS(_xlpm.x,5)))</f>
+        <v>IH</v>
+      </c>
+      <c r="K35" s="33">
+        <v>7</v>
+      </c>
+      <c r="L35" s="33" t="str">
+        <v>UL</v>
+      </c>
+      <c r="M35" s="33">
+        <v>2</v>
+      </c>
+      <c r="N35" s="34" t="str">
+        <v/>
+      </c>
+      <c r="O35" t="b">
+        <v>1</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="b">
+        <v>1</v>
+      </c>
+      <c r="R35" t="b">
+        <v>1</v>
+      </c>
+      <c r="S35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D36" s="1" t="str" cm="1">
         <f t="array" ref="D36:H36">MID(B16,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>TR</v>
@@ -2707,8 +3137,39 @@
       <c r="H36" s="1" t="str">
         <v/>
       </c>
-    </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J36" s="32" t="str" cm="1">
+        <f t="array" ref="J36:N36">_xlfn.LET(_xlpm.x,MID(B16,{1,3,4,6,7},{2,1,2,1,2}),_xlfn.HSTACK(_xlfn.CHOOSECOLS(_xlpm.x,1),_xlfn.CHOOSECOLS(_xlpm.x,2)+0,_xlfn.CHOOSECOLS(_xlpm.x,3),IFERROR(_xlfn.CHOOSECOLS(_xlpm.x,4)+0,""),_xlfn.CHOOSECOLS(_xlpm.x,5)))</f>
+        <v>TR</v>
+      </c>
+      <c r="K36" s="33">
+        <v>7</v>
+      </c>
+      <c r="L36" s="33" t="str">
+        <v/>
+      </c>
+      <c r="M36" s="33" t="str">
+        <v/>
+      </c>
+      <c r="N36" s="34" t="str">
+        <v/>
+      </c>
+      <c r="O36" t="b">
+        <v>1</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="b">
+        <v>1</v>
+      </c>
+      <c r="R36" t="b">
+        <v>1</v>
+      </c>
+      <c r="S36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D37" s="1" t="str" cm="1">
         <f t="array" ref="D37:H37">MID(B17,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>AT</v>
@@ -2724,6 +3185,37 @@
       </c>
       <c r="H37" s="1" t="str">
         <v/>
+      </c>
+      <c r="J37" s="32" t="str" cm="1">
+        <f t="array" ref="J37:N37">_xlfn.LET(_xlpm.x,MID(B17,{1,3,4,6,7},{2,1,2,1,2}),_xlfn.HSTACK(_xlfn.CHOOSECOLS(_xlpm.x,1),_xlfn.CHOOSECOLS(_xlpm.x,2)+0,_xlfn.CHOOSECOLS(_xlpm.x,3),IFERROR(_xlfn.CHOOSECOLS(_xlpm.x,4)+0,""),_xlfn.CHOOSECOLS(_xlpm.x,5)))</f>
+        <v>AT</v>
+      </c>
+      <c r="K37" s="33">
+        <v>7</v>
+      </c>
+      <c r="L37" s="33" t="str">
+        <v>JG</v>
+      </c>
+      <c r="M37" s="33" t="str">
+        <v/>
+      </c>
+      <c r="N37" s="34" t="str">
+        <v/>
+      </c>
+      <c r="O37" t="b">
+        <v>1</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="b">
+        <v>1</v>
+      </c>
+      <c r="R37" t="b">
+        <v>1</v>
+      </c>
+      <c r="S37" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CH-045 Text Split.xlsx
+++ b/CH-045 Text Split.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4629504-83E2-45B4-85EB-5AF8E260520D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4313E37A-52E6-473F-9AC8-0E912C4F035A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="58">
   <si>
     <t>Result</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>JG</t>
+  </si>
+  <si>
+    <t>Single Function Version</t>
   </si>
 </sst>
 </file>
@@ -239,7 +242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:m"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +277,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Mono"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -536,10 +546,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -658,8 +669,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1045,16 +1058,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>398145</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4095750</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1069,7 +1082,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1487805" y="114300"/>
+          <a:off x="9519285" y="220980"/>
           <a:ext cx="3857625" cy="3040380"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1110,16 +1123,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>168274</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>344170</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>107314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4114800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>43814</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1134,7 +1147,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1548130" y="168274"/>
+          <a:off x="9465310" y="282574"/>
           <a:ext cx="3816350" cy="2915920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1256,16 +1269,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>957318</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>35298</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>61098</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>302088</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>163148</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>408768</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>53478</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1279,9 +1292,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1178298" y="586878"/>
-          <a:ext cx="373470" cy="627830"/>
+        <a:xfrm flipV="1">
+          <a:off x="9156438" y="525780"/>
+          <a:ext cx="373470" cy="403998"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1331,16 +1344,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4033893</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>118248</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>254373</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>11568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4407363</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>29798</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>627843</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>98378</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1355,7 +1368,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5283573" y="819288"/>
+          <a:off x="13383633" y="1063128"/>
           <a:ext cx="373470" cy="612590"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -2079,17 +2092,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF8DA3B-3B7D-4B49-8436-B503742A1826}">
-  <dimension ref="B1:S37"/>
+  <dimension ref="B1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.8984375" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="58" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.19921875" style="1" customWidth="1"/>
     <col min="4" max="8" width="6.09765625" style="1" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
     <col min="11" max="11" width="7.8984375" customWidth="1"/>
@@ -2429,7 +2442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
         <v>15</v>
       </c>
@@ -2450,19 +2463,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C18" s="16"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C19" s="16"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C20" s="16"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C21" s="16"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C22" s="16"/>
       <c r="J22" s="29" t="s">
         <v>18</v>
@@ -2480,7 +2493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C23" s="16"/>
       <c r="D23" s="1" t="str" cm="1">
         <f t="array" ref="D23:H23">MID(B3,{1,3,4,6,7},{2,1,2,1,2})</f>
@@ -2514,11 +2527,8 @@
       <c r="N23" s="34" t="str">
         <v/>
       </c>
-      <c r="O23" t="b" cm="1">
-        <f t="array" ref="O23:S37">J23:N37=D3:H17</f>
-        <v>1</v>
-      </c>
-      <c r="P23" t="b">
+      <c r="P23" t="b" cm="1">
+        <f t="array" ref="P23:T37">J23:N37=D3:H17</f>
         <v>1</v>
       </c>
       <c r="Q23" t="b">
@@ -2530,8 +2540,11 @@
       <c r="S23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C24" s="16"/>
       <c r="D24" s="1" t="str" cm="1">
         <f t="array" ref="D24:H24">MID(B4,{1,3,4,6,7},{2,1,2,1,2})</f>
@@ -2565,9 +2578,6 @@
       <c r="N24" s="34" t="str">
         <v>PL</v>
       </c>
-      <c r="O24" t="b">
-        <v>1</v>
-      </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
@@ -2580,8 +2590,11 @@
       <c r="S24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="str" cm="1">
         <f t="array" ref="D25:H25">MID(B5,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>RE</v>
@@ -2614,9 +2627,6 @@
       <c r="N25" s="34" t="str">
         <v>R</v>
       </c>
-      <c r="O25" t="b">
-        <v>1</v>
-      </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
@@ -2629,8 +2639,11 @@
       <c r="S25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="str" cm="1">
         <f t="array" ref="D26:H26">MID(B6,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>EL</v>
@@ -2663,9 +2676,6 @@
       <c r="N26" s="34" t="str">
         <v>JK</v>
       </c>
-      <c r="O26" t="b">
-        <v>1</v>
-      </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
@@ -2678,8 +2688,11 @@
       <c r="S26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="str" cm="1">
         <f t="array" ref="D27:H27">MID(B7,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>TO</v>
@@ -2712,9 +2725,6 @@
       <c r="N27" s="34" t="str">
         <v>RU</v>
       </c>
-      <c r="O27" t="b">
-        <v>1</v>
-      </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
@@ -2727,8 +2737,11 @@
       <c r="S27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="str" cm="1">
         <f t="array" ref="D28:H28">MID(B8,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>PN</v>
@@ -2761,9 +2774,6 @@
       <c r="N28" s="34" t="str">
         <v/>
       </c>
-      <c r="O28" t="b">
-        <v>1</v>
-      </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
@@ -2776,8 +2786,11 @@
       <c r="S28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="str" cm="1">
         <f t="array" ref="D29:H29">MID(B9,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>UD</v>
@@ -2810,9 +2823,6 @@
       <c r="N29" s="34" t="str">
         <v/>
       </c>
-      <c r="O29" t="b">
-        <v>1</v>
-      </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
@@ -2825,8 +2835,11 @@
       <c r="S29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="str" cm="1">
         <f t="array" ref="D30:H30">MID(B10,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>RD</v>
@@ -2859,9 +2872,6 @@
       <c r="N30" s="34" t="str">
         <v>J</v>
       </c>
-      <c r="O30" t="b">
-        <v>1</v>
-      </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
@@ -2874,8 +2884,11 @@
       <c r="S30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="str" cm="1">
         <f t="array" ref="D31:H31">MID(B11,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>TQ</v>
@@ -2908,9 +2921,6 @@
       <c r="N31" s="37" t="str">
         <v/>
       </c>
-      <c r="O31" t="b">
-        <v>1</v>
-      </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
@@ -2923,8 +2933,11 @@
       <c r="S31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="str" cm="1">
         <f t="array" ref="D32:H32">MID(B12,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>JF</v>
@@ -2957,9 +2970,6 @@
       <c r="N32" s="34" t="str">
         <v/>
       </c>
-      <c r="O32" t="b">
-        <v>1</v>
-      </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
@@ -2972,8 +2982,11 @@
       <c r="S32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="T32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="str" cm="1">
         <f t="array" ref="D33:H33">MID(B13,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>LP</v>
@@ -3006,9 +3019,6 @@
       <c r="N33" s="34" t="str">
         <v/>
       </c>
-      <c r="O33" t="b">
-        <v>1</v>
-      </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
@@ -3021,8 +3031,11 @@
       <c r="S33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="T33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="str" cm="1">
         <f t="array" ref="D34:H34">MID(B14,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>QB</v>
@@ -3055,9 +3068,6 @@
       <c r="N34" s="34" t="str">
         <v>SA</v>
       </c>
-      <c r="O34" t="b">
-        <v>1</v>
-      </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
@@ -3070,8 +3080,11 @@
       <c r="S34" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="T34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D35" s="1" t="str" cm="1">
         <f t="array" ref="D35:H35">MID(B15,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>IH</v>
@@ -3104,9 +3117,6 @@
       <c r="N35" s="34" t="str">
         <v/>
       </c>
-      <c r="O35" t="b">
-        <v>1</v>
-      </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
@@ -3119,8 +3129,11 @@
       <c r="S35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="T35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D36" s="1" t="str" cm="1">
         <f t="array" ref="D36:H36">MID(B16,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>TR</v>
@@ -3153,9 +3166,6 @@
       <c r="N36" s="34" t="str">
         <v/>
       </c>
-      <c r="O36" t="b">
-        <v>1</v>
-      </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
@@ -3168,8 +3178,11 @@
       <c r="S36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="T36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D37" s="1" t="str" cm="1">
         <f t="array" ref="D37:H37">MID(B17,{1,3,4,6,7},{2,1,2,1,2})</f>
         <v>AT</v>
@@ -3202,9 +3215,6 @@
       <c r="N37" s="34" t="str">
         <v/>
       </c>
-      <c r="O37" t="b">
-        <v>1</v>
-      </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
@@ -3216,6 +3226,287 @@
       </c>
       <c r="S37" t="b">
         <v>1</v>
+      </c>
+      <c r="T37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C39" s="44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J40" s="29" t="str" cm="1">
+        <f t="array" ref="J40:N55">_xlfn.LET(_xlpm.x,MID(B3:B17,{1,3,4,6,7},{2,1,2,1,2}),_xlfn.VSTACK({"Part 1","Part 2","Part 3","Part 4","Part 5"},_xlfn.HSTACK(_xlfn.CHOOSECOLS(_xlpm.x,1),_xlfn.CHOOSECOLS(_xlpm.x,2)+0,_xlfn.CHOOSECOLS(_xlpm.x,3),IFERROR(_xlfn.CHOOSECOLS(_xlpm.x,4)+0,""),_xlfn.CHOOSECOLS(_xlpm.x,5))))</f>
+        <v>Part 1</v>
+      </c>
+      <c r="K40" s="30" t="str">
+        <v>Part 2</v>
+      </c>
+      <c r="L40" s="30" t="str">
+        <v>Part 3</v>
+      </c>
+      <c r="M40" s="30" t="str">
+        <v>Part 4</v>
+      </c>
+      <c r="N40" s="31" t="str">
+        <v>Part 5</v>
+      </c>
+    </row>
+    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J41" s="32" t="str">
+        <v>NG</v>
+      </c>
+      <c r="K41" s="33">
+        <v>6</v>
+      </c>
+      <c r="L41" s="33" t="str">
+        <v>GM</v>
+      </c>
+      <c r="M41" s="33">
+        <v>5</v>
+      </c>
+      <c r="N41" s="34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J42" s="32" t="str">
+        <v>UD</v>
+      </c>
+      <c r="K42" s="33">
+        <v>1</v>
+      </c>
+      <c r="L42" s="33" t="str">
+        <v>OP</v>
+      </c>
+      <c r="M42" s="33">
+        <v>3</v>
+      </c>
+      <c r="N42" s="34" t="str">
+        <v>PL</v>
+      </c>
+    </row>
+    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J43" s="32" t="str">
+        <v>RE</v>
+      </c>
+      <c r="K43" s="33">
+        <v>4</v>
+      </c>
+      <c r="L43" s="33" t="str">
+        <v>EA</v>
+      </c>
+      <c r="M43" s="33">
+        <v>3</v>
+      </c>
+      <c r="N43" s="34" t="str">
+        <v>R</v>
+      </c>
+    </row>
+    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J44" s="32" t="str">
+        <v>EL</v>
+      </c>
+      <c r="K44" s="33">
+        <v>8</v>
+      </c>
+      <c r="L44" s="33" t="str">
+        <v>DC</v>
+      </c>
+      <c r="M44" s="33">
+        <v>6</v>
+      </c>
+      <c r="N44" s="34" t="str">
+        <v>JK</v>
+      </c>
+    </row>
+    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J45" s="32" t="str">
+        <v>TO</v>
+      </c>
+      <c r="K45" s="33">
+        <v>1</v>
+      </c>
+      <c r="L45" s="33" t="str">
+        <v>TS</v>
+      </c>
+      <c r="M45" s="33">
+        <v>9</v>
+      </c>
+      <c r="N45" s="34" t="str">
+        <v>RU</v>
+      </c>
+    </row>
+    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J46" s="32" t="str">
+        <v>PN</v>
+      </c>
+      <c r="K46" s="33">
+        <v>6</v>
+      </c>
+      <c r="L46" s="33" t="str">
+        <v>PU</v>
+      </c>
+      <c r="M46" s="33" t="str">
+        <v/>
+      </c>
+      <c r="N46" s="34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J47" s="32" t="str">
+        <v>UD</v>
+      </c>
+      <c r="K47" s="33">
+        <v>8</v>
+      </c>
+      <c r="L47" s="33" t="str">
+        <v>PD</v>
+      </c>
+      <c r="M47" s="33">
+        <v>5</v>
+      </c>
+      <c r="N47" s="34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J48" s="32" t="str">
+        <v>RD</v>
+      </c>
+      <c r="K48" s="33">
+        <v>5</v>
+      </c>
+      <c r="L48" s="33" t="str">
+        <v>FS</v>
+      </c>
+      <c r="M48" s="33">
+        <v>7</v>
+      </c>
+      <c r="N48" s="34" t="str">
+        <v>J</v>
+      </c>
+    </row>
+    <row r="49" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J49" s="35" t="str">
+        <v>TQ</v>
+      </c>
+      <c r="K49" s="36">
+        <v>4</v>
+      </c>
+      <c r="L49" s="36" t="str">
+        <v>BN</v>
+      </c>
+      <c r="M49" s="36">
+        <v>8</v>
+      </c>
+      <c r="N49" s="37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J50" s="32" t="str">
+        <v>JF</v>
+      </c>
+      <c r="K50" s="33">
+        <v>7</v>
+      </c>
+      <c r="L50" s="33" t="str">
+        <v/>
+      </c>
+      <c r="M50" s="33" t="str">
+        <v/>
+      </c>
+      <c r="N50" s="34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J51" s="32" t="str">
+        <v>LP</v>
+      </c>
+      <c r="K51" s="33">
+        <v>7</v>
+      </c>
+      <c r="L51" s="33" t="str">
+        <v>U</v>
+      </c>
+      <c r="M51" s="33" t="str">
+        <v/>
+      </c>
+      <c r="N51" s="34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J52" s="32" t="str">
+        <v>QB</v>
+      </c>
+      <c r="K52" s="33">
+        <v>6</v>
+      </c>
+      <c r="L52" s="33" t="str">
+        <v>JT</v>
+      </c>
+      <c r="M52" s="33">
+        <v>5</v>
+      </c>
+      <c r="N52" s="34" t="str">
+        <v>SA</v>
+      </c>
+    </row>
+    <row r="53" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J53" s="32" t="str">
+        <v>IH</v>
+      </c>
+      <c r="K53" s="33">
+        <v>7</v>
+      </c>
+      <c r="L53" s="33" t="str">
+        <v>UL</v>
+      </c>
+      <c r="M53" s="33">
+        <v>2</v>
+      </c>
+      <c r="N53" s="34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J54" s="32" t="str">
+        <v>TR</v>
+      </c>
+      <c r="K54" s="33">
+        <v>7</v>
+      </c>
+      <c r="L54" s="33" t="str">
+        <v/>
+      </c>
+      <c r="M54" s="33" t="str">
+        <v/>
+      </c>
+      <c r="N54" s="34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J55" s="32" t="str">
+        <v>AT</v>
+      </c>
+      <c r="K55" s="33">
+        <v>7</v>
+      </c>
+      <c r="L55" s="33" t="str">
+        <v>JG</v>
+      </c>
+      <c r="M55" s="33" t="str">
+        <v/>
+      </c>
+      <c r="N55" s="34" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
